--- a/Problems_1.xlsx
+++ b/Problems_1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computer\Desktop\DBSM_lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алина\Desktop\ИВТ\4 семестр\СУБД\DBMS_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CF6DA-C544-4FE1-A3A7-3D219E1D2AC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="177">
   <si>
     <t>}</t>
   </si>
@@ -520,12 +519,48 @@
   </si>
   <si>
     <t>С помощью какого скрипта можно посмотреть зарплаты аниматоров, развлекающих клиентов зимой?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>R1 AND R2</t>
+  </si>
+  <si>
+    <t>R1 OR R2</t>
+  </si>
+  <si>
+    <t>R1-R2</t>
+  </si>
+  <si>
+    <t>R2-R1</t>
+  </si>
+  <si>
+    <t>{&lt;первый столбец, римские цифры, I&gt;, &lt;второй столбец, арабские цифры, 2&gt;}</t>
+  </si>
+  <si>
+    <t>{&lt;первый столбец, римские цифры, V&gt;, &lt;второй столбец, арабские цифры, 7&gt;}</t>
+  </si>
+  <si>
+    <t>{&lt;первый столбец, римские цифры, X&gt;, &lt;второй столбец, арабские цифры, 89&gt;}</t>
+  </si>
+  <si>
+    <t>декартово произведение</t>
+  </si>
+  <si>
+    <t>проекция по 1 и 3 атр</t>
+  </si>
+  <si>
+    <t>R1/R2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
@@ -577,15 +612,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -608,11 +649,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -622,7 +735,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -637,6 +749,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -652,6 +793,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476747</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1760220" y="3307080"/>
+          <a:ext cx="3562847" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198349</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318760" y="3291840"/>
+          <a:ext cx="1638529" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53367</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="3268980"/>
+          <a:ext cx="190527" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>44479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108552</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257299" y="13402339"/>
+          <a:ext cx="3087973" cy="2546321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436025</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4579620" y="13380720"/>
+          <a:ext cx="3834545" cy="1981487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,11 +1286,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
-  <dimension ref="A2:U194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -987,25 +1323,27 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="3" t="s">
@@ -1026,7 +1364,9 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="3" t="s">
@@ -1047,7 +1387,9 @@
       <c r="G7" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="3" t="s">
@@ -1068,7 +1410,9 @@
       <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="3" t="s">
@@ -1089,7 +1433,9 @@
       <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
@@ -1110,7 +1456,9 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="3" t="s">
@@ -1131,7 +1479,9 @@
       <c r="G11" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
@@ -1152,7 +1502,9 @@
       <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
@@ -1173,7 +1525,9 @@
       <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
@@ -1194,28 +1548,32 @@
       <c r="G14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
@@ -1236,7 +1594,9 @@
       <c r="G16" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="C17" s="1"/>
@@ -1250,1936 +1610,2358 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.399999999999999">
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.399999999999999">
+      <c r="C20" s="5"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="H21" s="7">
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="23">
         <v>2</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N22" s="23">
         <v>6</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O22" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q22" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R22" s="23">
         <v>89</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T22" s="7">
         <v>5</v>
       </c>
-      <c r="U21" s="8" t="s">
+      <c r="U22" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="H22" s="7">
+    <row r="23" spans="1:21">
+      <c r="H23" s="6">
         <v>15</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="6">
         <v>8</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K23" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L23" s="23">
         <v>7</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N23" s="23">
         <v>7</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O23" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q23" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R23" s="23">
         <v>78</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U23" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="H23" s="7" t="s">
+    <row r="24" spans="1:21">
+      <c r="H24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L24" s="23">
         <v>89</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N24" s="23">
         <v>45</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q24" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R24" s="23">
         <v>5</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T24" s="8">
         <v>4</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U24" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="N24" s="8">
+    <row r="25" spans="1:21">
+      <c r="N25" s="23">
         <v>32</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O25" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q25" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R25" s="23">
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="N25" s="8">
+    <row r="26" spans="1:21">
+      <c r="N26" s="23">
         <v>109</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O26" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="C27" s="2" t="s">
+    <row r="29" spans="1:21">
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29">
+    <row r="30" spans="1:21">
+      <c r="C30" s="2"/>
+      <c r="D30" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="C31" s="2"/>
+      <c r="D31" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.8" customHeight="1">
+      <c r="C32" s="2"/>
+      <c r="D32" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+    </row>
+    <row r="33" spans="1:24" ht="15" thickBot="1"/>
+    <row r="34" spans="1:24" ht="15" thickBot="1">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="H30" s="7" t="s">
+      <c r="N34" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="O34" s="31"/>
+      <c r="Q34" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" s="31"/>
+      <c r="T34" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="U34" s="31"/>
+      <c r="W34" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="X34" s="31"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="H35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I35" s="6">
         <v>15</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L35" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="F31" t="s">
+      <c r="N35" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="29">
+        <v>15</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="29">
+        <v>34</v>
+      </c>
+      <c r="W35" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="X35" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I36" s="6">
         <v>3</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L36" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="H32" s="7" t="s">
+      <c r="N36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" s="27">
+        <v>3</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="6">
+        <v>8</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="H37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I37" s="6">
         <v>34</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L37" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="H33" s="7" t="s">
+      <c r="N37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="6">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="T37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="H38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I38" s="6">
         <v>8</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L38" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="H34" s="7" t="s">
+      <c r="N38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="H39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I39" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="B36" s="2" t="s">
+      <c r="N39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="N40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
+      <c r="N41" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="15" thickBot="1">
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="15" thickBot="1">
+      <c r="A44">
         <v>4</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="H40" s="7" t="s">
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="31"/>
+      <c r="T44" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="U44" s="31"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="H45" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K45" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="F41" t="s">
+      <c r="P45" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="R45" s="29">
+        <v>1</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="U45" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="F46" t="s">
         <v>22</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G46" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K46" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="H42" s="7" t="s">
+      <c r="P46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R46" s="6">
+        <v>2</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U46" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="H47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K47" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="B44" s="2" t="s">
+      <c r="P47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R47" s="6">
+        <v>3</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U47" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="P48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="6">
+        <v>1</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="B49" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="2" t="s">
+      <c r="P49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="6">
+        <v>2</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U49" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="P50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R50" s="6">
+        <v>3</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U50" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
+      <c r="P51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R51" s="6">
+        <v>1</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="P52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="6">
+        <v>2</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="P53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53" s="6">
+        <v>3</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54">
         <v>5</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="H50" s="11" t="s">
+    <row r="55" spans="1:21">
+      <c r="H55" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L55" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="F51" t="s">
+    <row r="56" spans="1:21">
+      <c r="F56" t="s">
         <v>22</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G56" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H56" s="17">
         <v>45544</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K56" s="6">
         <v>9</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L56" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="H52" s="18">
+      <c r="N56" s="17">
+        <v>45544</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P56" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="H57" s="17">
         <v>45534</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I57" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K57" s="6">
         <v>5</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L57" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="K53" s="7">
+      <c r="N57" s="17">
+        <v>45534</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="P57" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="K58" s="6">
         <v>1</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L58" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
+    <row r="62" spans="1:21">
+      <c r="A62">
         <v>6</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="H57" s="7">
+      <c r="M62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="H64" s="6">
         <v>12</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I64" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K64" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="H58" s="7">
+      <c r="M64" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="H65" s="6">
         <v>56</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I65" s="6">
         <v>5</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K65" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="F59" t="s">
+      <c r="M65" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="F66" t="s">
         <v>22</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G66" t="s">
         <v>21</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H66" s="6">
         <v>86</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I66" s="6">
         <v>8</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K66" s="6">
         <v>87</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="H60" s="7">
+      <c r="M66" s="6">
         <v>5</v>
       </c>
-      <c r="I60" s="7">
+    </row>
+    <row r="67" spans="1:13">
+      <c r="H67" s="6">
+        <v>5</v>
+      </c>
+      <c r="I67" s="6">
         <v>3</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K67" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="H61" s="7">
+    <row r="68" spans="1:13">
+      <c r="H68" s="6">
         <v>14</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I68" s="6">
         <v>17</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K68" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="H62" s="7">
+    <row r="69" spans="1:13">
+      <c r="H69" s="6">
         <v>9</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I69" s="6">
         <v>32</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K69" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64">
+    <row r="71" spans="1:13">
+      <c r="A71">
         <v>7</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="B65" s="2" t="s">
+    <row r="72" spans="1:13">
+      <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67">
+    <row r="87" spans="1:13">
+      <c r="A87">
         <v>8</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
-      <c r="G69" t="s">
+    <row r="89" spans="1:13">
+      <c r="G89" t="s">
         <v>31</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I89" s="6">
         <v>1</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J89" s="6">
         <v>7</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="L89" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M89" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="I70" s="7">
+    <row r="90" spans="1:13">
+      <c r="I90" s="6">
         <v>2</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J90" s="6">
         <v>8</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L90" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M90" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
-      <c r="I71" s="7">
+    <row r="91" spans="1:13">
+      <c r="I91" s="6">
         <v>3</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J91" s="6">
         <v>9</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L91" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M91" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
-      <c r="I72" s="7">
+    <row r="92" spans="1:13">
+      <c r="I92" s="6">
         <v>4</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J92" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M92" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="G74" t="s">
+    <row r="94" spans="1:13">
+      <c r="G94" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I94" s="6">
         <v>67</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J94" s="6">
         <v>67</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L94" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M94" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
-      <c r="I75" s="7">
+    <row r="95" spans="1:13">
+      <c r="I95" s="6">
         <v>2</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J95" s="6">
         <v>7</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L95" s="6">
         <v>2</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M95" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
-      <c r="I76" s="7">
+    <row r="96" spans="1:13">
+      <c r="I96" s="6">
         <v>87</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J96" s="6">
         <v>65</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L96" s="6">
         <v>3</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="M96" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="I77" s="7">
+    <row r="97" spans="1:13">
+      <c r="I97" s="6">
         <v>2</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J97" s="6">
         <v>7</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L97" s="6">
         <v>4</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="M97" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
-      <c r="G79" t="s">
+    <row r="99" spans="1:13">
+      <c r="G99" t="s">
         <v>33</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I99" s="7">
         <v>9</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="19"/>
-      <c r="L79" s="8" t="s">
+      <c r="K99" s="18"/>
+      <c r="L99" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M79" s="8" t="s">
+      <c r="M99" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="I80" s="8">
+    <row r="100" spans="1:13">
+      <c r="I100" s="7">
         <v>8</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J100" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="19"/>
-      <c r="L80" s="8" t="s">
+      <c r="K100" s="18"/>
+      <c r="L100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M100" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="I81" s="8">
+    <row r="101" spans="1:13">
+      <c r="I101" s="7">
         <v>45</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J101" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="19"/>
-      <c r="L81" s="8" t="s">
+      <c r="K101" s="18"/>
+      <c r="L101" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M101" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="I82" s="8">
+    <row r="102" spans="1:13">
+      <c r="I102" s="7">
         <v>4</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J102" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K82" s="19"/>
-      <c r="L82" s="8" t="s">
+      <c r="K102" s="18"/>
+      <c r="L102" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M102" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
-      <c r="G84" t="s">
+    <row r="104" spans="1:13">
+      <c r="G104" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I104" s="6">
         <v>1</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J104" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L104" s="6">
         <v>1</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M104" s="6">
         <v>9876</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="I85" s="7">
+    <row r="105" spans="1:13">
+      <c r="I105" s="6">
         <v>2</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L105" s="6">
         <v>2</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M105" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="I86" s="7">
+    <row r="106" spans="1:13">
+      <c r="I106" s="6">
         <v>78</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J106" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L106" s="6">
         <v>3</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M106" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
-      <c r="I87" s="7">
+    <row r="107" spans="1:13">
+      <c r="I107" s="6">
         <v>4</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J107" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L107" s="6">
         <v>4</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M107" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89">
+    <row r="109" spans="1:13">
+      <c r="A109">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="B90" s="2" t="s">
+    <row r="110" spans="1:13">
+      <c r="B110" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
-      <c r="I91" s="11" t="s">
+    <row r="111" spans="1:13">
+      <c r="I111" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J111" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K111" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="L111" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M111" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="I92" s="11" t="s">
+    <row r="112" spans="1:13">
+      <c r="I112" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J112" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K112" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L112" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M112" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
-      <c r="I93" s="7" t="s">
+    <row r="113" spans="1:15">
+      <c r="I113" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J113" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K113" s="6">
         <v>1</v>
       </c>
-      <c r="L93" s="7" t="s">
+      <c r="L113" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M93" s="12">
+      <c r="M113" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
-      <c r="I94" s="7" t="s">
+    <row r="114" spans="1:15">
+      <c r="I114" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J114" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K114" s="6">
         <v>2</v>
       </c>
-      <c r="L94" s="7" t="s">
+      <c r="L114" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="M94" s="12">
+      <c r="M114" s="11">
         <v>39815</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
-      <c r="I95" s="7" t="s">
+    <row r="115" spans="1:15">
+      <c r="I115" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J115" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K115" s="6">
         <v>3</v>
       </c>
-      <c r="L95" s="7" t="s">
+      <c r="L115" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M95" s="12">
+      <c r="M115" s="11">
         <v>43833</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
-      <c r="I96" s="7" t="s">
+    <row r="116" spans="1:15">
+      <c r="I116" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J116" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K96" s="7">
+      <c r="K116" s="6">
         <v>1</v>
       </c>
-      <c r="L96" s="7" t="s">
+      <c r="L116" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M96" s="12">
+      <c r="M116" s="11">
         <v>36892</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
-      <c r="I97" s="7" t="s">
+    <row r="117" spans="1:15">
+      <c r="I117" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J117" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K117" s="6">
         <v>3</v>
       </c>
-      <c r="L97" s="7" t="s">
+      <c r="L117" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="M97" s="12">
+      <c r="M117" s="11">
         <v>42374</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100">
+    <row r="120" spans="1:15">
+      <c r="A120">
         <v>10</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="B101" s="2" t="s">
+    <row r="121" spans="1:15">
+      <c r="B121" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
-      <c r="F103" t="s">
+    <row r="123" spans="1:15">
+      <c r="F123" t="s">
         <v>31</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H123" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I123" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J123" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K123" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M103" s="13" t="s">
+      <c r="M123" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N103" s="13" t="s">
+      <c r="N123" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O103" s="13" t="s">
+      <c r="O123" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="H104" s="11" t="s">
+    <row r="124" spans="1:15">
+      <c r="H124" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I124" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J124" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K124" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M124" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N104" s="13" t="s">
+      <c r="N124" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O104" s="13" t="s">
+      <c r="O124" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
-      <c r="H105" s="7" t="s">
+    <row r="125" spans="1:15">
+      <c r="H125" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I125" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J125" s="6">
         <v>290</v>
       </c>
-      <c r="K105" s="7" t="s">
+      <c r="K125" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M105" s="7" t="s">
+      <c r="M125" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N105" s="7" t="s">
+      <c r="N125" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O105" s="7" t="s">
+      <c r="O125" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
-      <c r="H106" s="7" t="s">
+    <row r="126" spans="1:15">
+      <c r="H126" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I126" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J126" s="6">
         <v>302</v>
       </c>
-      <c r="K106" s="7" t="s">
+      <c r="K126" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M106" s="7" t="s">
+      <c r="M126" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N106" s="7" t="s">
+      <c r="N126" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O106" s="7" t="s">
+      <c r="O126" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
-      <c r="H107" s="7" t="s">
+    <row r="127" spans="1:15">
+      <c r="H127" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I127" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J127" s="6">
         <v>300</v>
       </c>
-      <c r="K107" s="7" t="s">
+      <c r="K127" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
-      <c r="H108" s="7" t="s">
+    <row r="128" spans="1:15">
+      <c r="H128" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="I128" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J128" s="6">
         <v>296</v>
       </c>
-      <c r="K108" s="7" t="s">
+      <c r="K128" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
-      <c r="H109" s="7" t="s">
+    <row r="129" spans="6:15">
+      <c r="H129" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I129" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J129" s="6">
         <v>298</v>
       </c>
-      <c r="K109" s="7" t="s">
+      <c r="K129" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
-      <c r="F111" s="19" t="s">
+    <row r="131" spans="6:15">
+      <c r="F131" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H111" s="11" t="s">
+      <c r="H131" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I131" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J111" s="11" t="s">
+      <c r="J131" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K111" s="14"/>
-      <c r="M111" s="13" t="s">
+      <c r="K131" s="13"/>
+      <c r="M131" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N111" s="13" t="s">
+      <c r="N131" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O111" s="13" t="s">
+      <c r="O131" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
-      <c r="H112" s="11" t="s">
+    <row r="132" spans="6:15">
+      <c r="H132" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I132" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J132" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K112" s="14"/>
-      <c r="M112" s="11" t="s">
+      <c r="K132" s="13"/>
+      <c r="M132" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N112" s="13" t="s">
+      <c r="N132" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O112" s="13" t="s">
+      <c r="O132" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="6:15">
-      <c r="H113" s="7" t="s">
+    <row r="133" spans="6:15">
+      <c r="H133" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I133" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="J133" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K113" s="15"/>
-      <c r="M113" s="7" t="s">
+      <c r="K133" s="14"/>
+      <c r="M133" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N113" s="7" t="s">
+      <c r="N133" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O113" s="7" t="s">
+      <c r="O133" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="6:15">
-      <c r="H114" s="7" t="s">
+    <row r="134" spans="6:15">
+      <c r="H134" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I134" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J114" s="7" t="s">
+      <c r="J134" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K114" s="15"/>
-      <c r="M114" s="7" t="s">
+      <c r="K134" s="14"/>
+      <c r="M134" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N114" s="7" t="s">
+      <c r="N134" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O114" s="7" t="s">
+      <c r="O134" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="6:15">
-      <c r="H115" s="7" t="s">
+    <row r="135" spans="6:15">
+      <c r="H135" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I135" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J135" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K115" s="15"/>
-    </row>
-    <row r="116" spans="6:15">
-      <c r="H116" s="7" t="s">
+      <c r="K135" s="14"/>
+    </row>
+    <row r="136" spans="6:15">
+      <c r="H136" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I136" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J136" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K116" s="15"/>
-    </row>
-    <row r="117" spans="6:15">
-      <c r="H117" s="7" t="s">
+      <c r="K136" s="14"/>
+    </row>
+    <row r="137" spans="6:15">
+      <c r="H137" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I137" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J137" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K117" s="15"/>
-    </row>
-    <row r="119" spans="6:15">
-      <c r="F119" s="19" t="s">
+      <c r="K137" s="14"/>
+    </row>
+    <row r="139" spans="6:15">
+      <c r="F139" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H139" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I139" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J139" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K139" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M119" s="13" t="s">
+      <c r="M139" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N119" s="13" t="s">
+      <c r="N139" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O119" s="13" t="s">
+      <c r="O139" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="6:15">
-      <c r="H120" s="11" t="s">
+    <row r="140" spans="6:15">
+      <c r="H140" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I140" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J140" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="K140" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M140" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N120" s="13" t="s">
+      <c r="N140" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O120" s="13" t="s">
+      <c r="O140" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="6:15">
-      <c r="H121" s="7" t="s">
+    <row r="141" spans="6:15">
+      <c r="H141" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I121" s="7" t="s">
+      <c r="I141" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J141" s="6">
         <v>290</v>
       </c>
-      <c r="K121" s="7" t="s">
+      <c r="K141" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M121" s="7" t="s">
+      <c r="M141" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N121" s="7" t="s">
+      <c r="N141" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O121" s="7" t="s">
+      <c r="O141" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="6:15">
-      <c r="H122" s="7" t="s">
+    <row r="142" spans="6:15">
+      <c r="H142" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I122" s="7" t="s">
+      <c r="I142" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J142" s="6">
         <v>302</v>
       </c>
-      <c r="K122" s="7" t="s">
+      <c r="K142" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M122" s="7" t="s">
+      <c r="M142" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N122" s="7" t="s">
+      <c r="N142" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O122" s="7" t="s">
+      <c r="O142" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="6:15">
-      <c r="H123" s="7" t="s">
+    <row r="143" spans="6:15">
+      <c r="H143" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I143" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J123" s="7">
+      <c r="J143" s="6">
         <v>300</v>
       </c>
-      <c r="K123" s="7" t="s">
+      <c r="K143" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="6:15">
-      <c r="H124" s="7" t="s">
+    <row r="144" spans="6:15">
+      <c r="H144" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I144" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J124" s="7">
+      <c r="J144" s="6">
         <v>296</v>
       </c>
-      <c r="K124" s="7" t="s">
+      <c r="K144" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="6:15">
-      <c r="H125" s="7" t="s">
+    <row r="145" spans="6:15">
+      <c r="H145" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I145" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J125" s="7">
+      <c r="J145" s="6">
         <v>298</v>
       </c>
-      <c r="K125" s="7" t="s">
+      <c r="K145" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="6:15">
-      <c r="F127" t="s">
+    <row r="147" spans="6:15">
+      <c r="F147" t="s">
         <v>34</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H147" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I147" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J127" s="11" t="s">
+      <c r="J147" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K127" s="11" t="s">
+      <c r="K147" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M127" s="13" t="s">
+      <c r="M147" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N127" s="13" t="s">
+      <c r="N147" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O127" s="13" t="s">
+      <c r="O147" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="6:15">
-      <c r="H128" s="11" t="s">
+    <row r="148" spans="6:15">
+      <c r="H148" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I128" s="11" t="s">
+      <c r="I148" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J128" s="11" t="s">
+      <c r="J148" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K128" s="11" t="s">
+      <c r="K148" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M128" s="11" t="s">
+      <c r="M148" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N128" s="13" t="s">
+      <c r="N148" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O128" s="13" t="s">
+      <c r="O148" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
-      <c r="H129" s="7" t="s">
+    <row r="149" spans="6:15">
+      <c r="H149" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I129" s="7" t="s">
+      <c r="I149" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J129" s="7">
+      <c r="J149" s="6">
         <v>290</v>
       </c>
-      <c r="K129" s="7" t="s">
+      <c r="K149" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M129" s="7" t="s">
+      <c r="M149" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N129" s="7" t="s">
+      <c r="N149" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O129" s="7" t="s">
+      <c r="O149" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
-      <c r="H130" s="7" t="s">
+    <row r="150" spans="6:15">
+      <c r="H150" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I130" s="7" t="s">
+      <c r="I150" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J130" s="7">
+      <c r="J150" s="6">
         <v>302</v>
       </c>
-      <c r="K130" s="7" t="s">
+      <c r="K150" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M130" s="7" t="s">
+      <c r="M150" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N130" s="7" t="s">
+      <c r="N150" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O130" s="7" t="s">
+      <c r="O150" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
-      <c r="H131" s="7" t="s">
+    <row r="151" spans="6:15">
+      <c r="H151" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I131" s="7" t="s">
+      <c r="I151" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J131" s="7">
+      <c r="J151" s="6">
         <v>300</v>
       </c>
-      <c r="K131" s="7" t="s">
+      <c r="K151" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
-      <c r="H132" s="7" t="s">
+    <row r="152" spans="6:15">
+      <c r="H152" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I132" s="7" t="s">
+      <c r="I152" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J132" s="7">
+      <c r="J152" s="6">
         <v>296</v>
       </c>
-      <c r="K132" s="7" t="s">
+      <c r="K152" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
-      <c r="H133" s="7" t="s">
+    <row r="153" spans="6:15">
+      <c r="H153" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I133" s="7" t="s">
+      <c r="I153" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J133" s="7">
+      <c r="J153" s="6">
         <v>298</v>
       </c>
-      <c r="K133" s="7" t="s">
+      <c r="K153" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
-      <c r="F135" s="19" t="s">
+    <row r="155" spans="6:15">
+      <c r="F155" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H135" s="11" t="s">
+      <c r="H155" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="I155" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J155" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K135" s="11" t="s">
+      <c r="K155" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M135" s="13" t="s">
+      <c r="M155" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N135" s="13" t="s">
+      <c r="N155" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O135" s="13" t="s">
+      <c r="O155" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
-      <c r="H136" s="11" t="s">
+    <row r="156" spans="6:15">
+      <c r="H156" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I156" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J136" s="11" t="s">
+      <c r="J156" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K136" s="11" t="s">
+      <c r="K156" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M136" s="11" t="s">
+      <c r="M156" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N136" s="13" t="s">
+      <c r="N156" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O136" s="13" t="s">
+      <c r="O156" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
-      <c r="H137" s="7" t="s">
+    <row r="157" spans="6:15">
+      <c r="H157" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I137" s="7" t="s">
+      <c r="I157" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J137" s="7">
+      <c r="J157" s="6">
         <v>290</v>
       </c>
-      <c r="K137" s="7" t="s">
+      <c r="K157" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="M137" s="7" t="s">
+      <c r="M157" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="N137" s="7" t="s">
+      <c r="N157" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O137" s="7" t="s">
+      <c r="O157" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="H138" s="7" t="s">
+    <row r="158" spans="6:15">
+      <c r="H158" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I138" s="7" t="s">
+      <c r="I158" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J138" s="7">
+      <c r="J158" s="6">
         <v>302</v>
       </c>
-      <c r="K138" s="7" t="s">
+      <c r="K158" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M138" s="7" t="s">
+      <c r="M158" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N138" s="7" t="s">
+      <c r="N158" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O138" s="7" t="s">
+      <c r="O158" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
-      <c r="H139" s="7" t="s">
+    <row r="159" spans="6:15">
+      <c r="H159" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I139" s="7" t="s">
+      <c r="I159" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J139" s="7">
+      <c r="J159" s="6">
         <v>300</v>
       </c>
-      <c r="K139" s="7" t="s">
+      <c r="K159" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
-      <c r="H140" s="7" t="s">
+    <row r="160" spans="6:15">
+      <c r="H160" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I140" s="7" t="s">
+      <c r="I160" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J140" s="7">
+      <c r="J160" s="6">
         <v>296</v>
       </c>
-      <c r="K140" s="7" t="s">
+      <c r="K160" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
-      <c r="H141" s="7" t="s">
+    <row r="161" spans="1:20">
+      <c r="H161" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I141" s="7" t="s">
+      <c r="I161" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J141" s="7">
+      <c r="J161" s="6">
         <v>298</v>
       </c>
-      <c r="K141" s="7" t="s">
+      <c r="K161" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
-      <c r="A143">
+    <row r="163" spans="1:20">
+      <c r="A163">
         <v>11</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
-      <c r="B144" s="2" t="s">
+    <row r="164" spans="1:20">
+      <c r="B164" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
-      <c r="H146" s="11" t="s">
+    <row r="166" spans="1:20">
+      <c r="H166" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
-      <c r="H147" s="7" t="s">
+    <row r="167" spans="1:20">
+      <c r="H167" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
-      <c r="F148" t="s">
+    <row r="168" spans="1:20">
+      <c r="F168" t="s">
         <v>59</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G168" t="s">
         <v>21</v>
       </c>
-      <c r="H148" s="7" t="s">
+      <c r="H168" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
-      <c r="H149" s="7" t="s">
+    <row r="169" spans="1:20">
+      <c r="H169" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
-      <c r="A151">
+    <row r="171" spans="1:20">
+      <c r="A171">
         <v>12</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
-      <c r="H152" s="11" t="s">
+    <row r="172" spans="1:20">
+      <c r="H172" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I152" s="11" t="s">
+      <c r="I172" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J152" s="11" t="s">
+      <c r="J172" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="M152" s="11" t="s">
+      <c r="M172" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="N152" s="11" t="s">
+      <c r="N172" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="O152" s="11" t="s">
+      <c r="O172" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="R152" s="13" t="s">
+      <c r="R172" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="S152" s="13" t="s">
+      <c r="S172" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="T152" s="13" t="s">
+      <c r="T172" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
-      <c r="H153" s="7" t="s">
+    <row r="173" spans="1:20">
+      <c r="H173" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I173" s="6">
         <v>15000</v>
       </c>
-      <c r="J153" s="7">
+      <c r="J173" s="6">
         <v>1</v>
       </c>
-      <c r="M153" s="7" t="s">
+      <c r="M173" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N153" s="7" t="s">
+      <c r="N173" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O153" s="7">
+      <c r="O173" s="6">
         <v>2</v>
       </c>
-      <c r="R153" s="7">
+      <c r="R173" s="6">
         <v>1</v>
       </c>
-      <c r="S153" s="7" t="s">
+      <c r="S173" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="T153" s="7" t="s">
+      <c r="T173" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
-      <c r="F154" t="s">
+    <row r="174" spans="1:20">
+      <c r="F174" t="s">
         <v>22</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G174" t="s">
         <v>21</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H174" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I174" s="6">
         <v>30000</v>
       </c>
-      <c r="J154" s="7">
+      <c r="J174" s="6">
         <v>1</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L174" t="s">
         <v>65</v>
       </c>
-      <c r="M154" s="7" t="s">
+      <c r="M174" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N154" s="7" t="s">
+      <c r="N174" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O154" s="7">
+      <c r="O174" s="6">
         <v>1</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="Q174" t="s">
         <v>71</v>
       </c>
-      <c r="R154" s="7">
+      <c r="R174" s="6">
         <v>2</v>
       </c>
-      <c r="S154" s="7" t="s">
+      <c r="S174" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="T154" s="7" t="s">
+      <c r="T174" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
-      <c r="H155" s="7" t="s">
+    <row r="175" spans="1:20">
+      <c r="H175" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I175" s="6">
         <v>60000</v>
       </c>
-      <c r="J155" s="7">
+      <c r="J175" s="6">
         <v>1</v>
       </c>
-      <c r="M155" s="7" t="s">
+      <c r="M175" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N155" s="7" t="s">
+      <c r="N175" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O155" s="7">
+      <c r="O175" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
-      <c r="H156" s="7" t="s">
+    <row r="176" spans="1:20">
+      <c r="H176" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I176" s="6">
         <v>17000</v>
       </c>
-      <c r="J156" s="7">
+      <c r="J176" s="6">
         <v>1</v>
       </c>
-      <c r="M156" s="7" t="s">
+      <c r="M176" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N156" s="7" t="s">
+      <c r="N176" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O156" s="7">
+      <c r="O176" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
-      <c r="H157" s="7" t="s">
+    <row r="177" spans="1:19">
+      <c r="H177" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I177" s="6">
         <v>23000</v>
       </c>
-      <c r="J157" s="7">
+      <c r="J177" s="6">
         <v>1</v>
       </c>
-      <c r="M157" s="7" t="s">
+      <c r="M177" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N157" s="7" t="s">
+      <c r="N177" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O157" s="7">
+      <c r="O177" s="6">
         <v>1</v>
       </c>
-      <c r="R157" s="11" t="s">
+      <c r="R177" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="S157" s="11" t="s">
+      <c r="S177" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
-      <c r="H158" s="7" t="s">
+    <row r="178" spans="1:19">
+      <c r="H178" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I178" s="6">
         <v>25000</v>
       </c>
-      <c r="J158" s="7">
+      <c r="J178" s="6">
         <v>2</v>
       </c>
-      <c r="M158" s="16" t="s">
+      <c r="M178" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N158" s="7" t="s">
+      <c r="N178" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O158" s="16">
+      <c r="O178" s="15">
         <v>2</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="Q178" t="s">
         <v>78</v>
       </c>
-      <c r="R158" s="7" t="s">
+      <c r="R178" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S158" s="17">
+      <c r="S178" s="16">
         <v>45627</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
-      <c r="H159" s="7" t="s">
+    <row r="179" spans="1:19">
+      <c r="H179" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I159" s="7">
+      <c r="I179" s="6">
         <v>32000</v>
       </c>
-      <c r="J159" s="7">
+      <c r="J179" s="6">
         <v>2</v>
       </c>
-      <c r="R159" s="7" t="s">
+      <c r="R179" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="S159" s="17">
+      <c r="S179" s="16">
         <v>45047</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
-      <c r="H160" s="7" t="s">
+    <row r="180" spans="1:19">
+      <c r="H180" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I180" s="6">
         <v>16000</v>
       </c>
-      <c r="J160" s="7">
+      <c r="J180" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
-      <c r="H161" s="7" t="s">
+    <row r="181" spans="1:19">
+      <c r="H181" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I161" s="7">
+      <c r="I181" s="6">
         <v>20000</v>
       </c>
-      <c r="J161" s="7">
+      <c r="J181" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
-      <c r="H162" s="7" t="s">
+    <row r="182" spans="1:19">
+      <c r="H182" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I162" s="7">
+      <c r="I182" s="6">
         <v>40000</v>
       </c>
-      <c r="J162" s="7">
+      <c r="J182" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
-      <c r="B164" s="2" t="s">
+    <row r="184" spans="1:19">
+      <c r="B184" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
-      <c r="C166" t="s">
+    <row r="186" spans="1:19">
+      <c r="C186" t="s">
         <v>31</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D186" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
-      <c r="C167" t="s">
+    <row r="187" spans="1:19">
+      <c r="C187" t="s">
         <v>32</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D187" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
-      <c r="C168" t="s">
+    <row r="188" spans="1:19">
+      <c r="C188" t="s">
         <v>33</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D188" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
-      <c r="C169" t="s">
+    <row r="189" spans="1:19">
+      <c r="C189" t="s">
         <v>34</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D189" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
-      <c r="A171">
+    <row r="191" spans="1:19">
+      <c r="A191">
         <v>13</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
-      <c r="B172" s="2" t="s">
+    <row r="192" spans="1:19">
+      <c r="B192" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
-      <c r="B174" s="2" t="s">
+    <row r="194" spans="1:6">
+      <c r="B194" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
-      <c r="E176" t="s">
+    <row r="196" spans="1:6">
+      <c r="E196" t="s">
         <v>31</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F196" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="E177" t="s">
+    <row r="197" spans="1:6">
+      <c r="E197" t="s">
         <v>32</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F197" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
+    <row r="199" spans="1:6">
+      <c r="A199">
         <v>14</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="B180" s="2" t="s">
+    <row r="200" spans="1:6">
+      <c r="B200" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="B181" s="2" t="s">
+    <row r="201" spans="1:6">
+      <c r="B201" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="B182" s="2" t="s">
+    <row r="202" spans="1:6">
+      <c r="B202" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="B184" s="2" t="s">
+    <row r="204" spans="1:6">
+      <c r="B204" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
+    <row r="206" spans="1:6">
+      <c r="A206">
         <v>15</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
+    <row r="208" spans="1:6">
+      <c r="A208">
         <v>16</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
+    <row r="210" spans="1:2">
+      <c r="A210">
         <v>17</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
+    <row r="212" spans="1:2">
+      <c r="A212">
         <v>18</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
+    <row r="214" spans="1:2">
+      <c r="A214">
         <v>19</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="D32:N32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>